--- a/RQ3/experience.xlsx
+++ b/RQ3/experience.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E08437-244B-4754-92FB-3F6349E6A103}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07302DB6-FDAC-4152-9A32-1E22A57BB506}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{7B9116A1-8693-49CE-9A57-53AB9E5EAD69}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" activeTab="1" xr2:uid="{7B9116A1-8693-49CE-9A57-53AB9E5EAD69}"/>
   </bookViews>
   <sheets>
     <sheet name="GA" sheetId="2" r:id="rId1"/>
@@ -26,65 +26,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
-  <si>
-    <t>张晓欣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>谢佳展</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王积旺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邢双双</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白雪芳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕港</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈琳琳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许聪颖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘弋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张明睿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵成原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>experience/year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>user_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈彪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,91 +397,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757AFEC1-20D6-41C0-B4CC-D92CC54E0991}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="53.25" customWidth="1"/>
+    <col min="2" max="2" width="53.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+      <c r="B2">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
@@ -546,91 +473,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3403961B-4531-4E8F-A3C6-C4F38B75FEB3}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="44.625" customWidth="1"/>
+    <col min="2" max="2" width="44.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
+      <c r="B7">
         <v>4</v>
       </c>
     </row>
